--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-code-hot7-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-medication-code-hot7-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
